--- a/PE24A_RRDE/PE24A_RRDE/Resources/Data/Vectors.xlsx
+++ b/PE24A_RRDE/PE24A_RRDE/Resources/Data/Vectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\learning-csharp\PE24A_RRDE\PE24A_RRDE\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0653F8AC-D521-4656-9C3B-4A422E0E66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC8E08-819F-476B-A939-8586B7515149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1560" windowWidth="6585" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,8 +164,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -450,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,269 +469,153 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>IF(AND(B2&lt;&gt;"",C2&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V1</v>
       </c>
       <c r="B2" s="3">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>IF(AND(B3&lt;&gt;"",C3&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V2</v>
       </c>
       <c r="B3" s="3">
-        <v>-30</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
-        <f t="shared" ref="A4:A15" si="0">IF(AND(B4&lt;&gt;"",C4&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
+        <f>IF(AND(B4&lt;&gt;"",C4&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V3</v>
       </c>
       <c r="B4" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(B5&lt;&gt;"",C5&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V4</v>
       </c>
       <c r="B5" s="3">
-        <v>-30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>IF(AND(B6&lt;&gt;"",C6&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V5</v>
       </c>
       <c r="B6" s="3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>IF(AND(B7&lt;&gt;"",C7&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V6</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="str">
+        <f>IF(AND(B8&lt;&gt;"",C8&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V7</v>
       </c>
       <c r="B8" s="3">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C8" s="3">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="str">
+        <f>IF(AND(B9&lt;&gt;"",C9&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V8</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="str">
+        <f>IF(AND(B10&lt;&gt;"",C10&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V9</v>
       </c>
       <c r="B10" s="3">
-        <v>-100</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>IF(AND(B11&lt;&gt;"",C11&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
         <v>V10</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>V11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>V12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>V13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>V14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" ref="A16" si="1">IF(AND(B16&lt;&gt;"",C16&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
-        <v>V15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>-100</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f t="shared" ref="A17:A18" si="2">IF(AND(B17&lt;&gt;"",C17&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
-        <v>V16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
-        <f t="shared" ref="A19:A26" si="3">IF(AND(B19&lt;&gt;"",C19&lt;&gt;""), "V" &amp; ROW()-1, "")</f>
-        <v/>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
